--- a/実装内容.xlsx
+++ b/実装内容.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E62B86-C8DE-4407-BC01-E84716248D43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BC1D1-934D-4775-8C45-1494B52E9F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="1"/>
@@ -220,6 +220,26 @@
   </si>
   <si>
     <t>ハート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きくなる</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色を変える(ハート以外)</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -598,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -706,13 +726,17 @@
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
@@ -928,15 +952,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100981F00714534F248AF97D93A6B3CC418" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1fc465350d09364b3b1afb9d504c5fa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e822ce3d-65dd-42e4-9436-492eba98715f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd6818d699e9f1d0f7334acb213c4b2" ns2:_="">
     <xsd:import namespace="e822ce3d-65dd-42e4-9436-492eba98715f"/>
@@ -1084,6 +1099,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
   <ds:schemaRefs>
@@ -1094,14 +1118,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC8CE91-577E-4356-A8E1-1C9EFD67022A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA06B51-263A-483E-B64B-40457DBAAF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1117,4 +1133,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC8CE91-577E-4356-A8E1-1C9EFD67022A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/実装内容.xlsx
+++ b/実装内容.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032BC1D1-934D-4775-8C45-1494B52E9F8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6422DA29-DEA7-4EE0-A53E-6B1B6416865B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="1"/>
@@ -239,6 +239,20 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分裂する</t>
+    <rPh sb="0" eb="2">
+      <t>ブンレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードを上げる</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -779,13 +793,17 @@
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
@@ -946,12 +964,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100981F00714534F248AF97D93A6B3CC418" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1fc465350d09364b3b1afb9d504c5fa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e822ce3d-65dd-42e4-9436-492eba98715f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd6818d699e9f1d0f7334acb213c4b2" ns2:_="">
     <xsd:import namespace="e822ce3d-65dd-42e4-9436-492eba98715f"/>
@@ -1099,6 +1111,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1109,15 +1127,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA06B51-263A-483E-B64B-40457DBAAF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1135,6 +1144,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC8CE91-577E-4356-A8E1-1C9EFD67022A}">
   <ds:schemaRefs>

--- a/実装内容.xlsx
+++ b/実装内容.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6422DA29-DEA7-4EE0-A53E-6B1B6416865B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC165C15-E29C-44C3-92E7-B4EAA50DEBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="1"/>
@@ -190,35 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分を回転させる</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相手が三角形だった場合相手を回転させる</t>
-    <rPh sb="0" eb="2">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サンカクケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -253,6 +224,65 @@
     <t>スピードを上げる</t>
     <rPh sb="5" eb="6">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードを下げる</t>
+    <rPh sb="5" eb="6">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手が三角形だった場合相手を回転させる(回転していたら止める)</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サンカクケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分を回転させる (回転していたら止める)</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸を消す</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さくなる</t>
+    <rPh sb="0" eb="1">
+      <t>チイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -632,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -741,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
@@ -749,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
@@ -794,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
@@ -802,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
@@ -852,7 +882,9 @@
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
@@ -896,7 +928,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -904,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -925,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
@@ -948,13 +980,17 @@
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/実装内容.xlsx
+++ b/実装内容.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC165C15-E29C-44C3-92E7-B4EAA50DEBDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083BF325-2B02-4D6A-A1B2-6B15DBCE9617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>サンプル</t>
     <phoneticPr fontId="1"/>
@@ -270,19 +270,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>丸を消す</t>
-    <rPh sb="0" eb="1">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小さくなる</t>
     <rPh sb="0" eb="1">
       <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3回他の形と当たった場合その形になる　例:(丸に2回、四角に3回)当たれば四角になる</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハートサイズの半分以下の丸を消す</t>
+    <rPh sb="7" eb="9">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -662,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -876,7 +925,9 @@
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
@@ -981,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
@@ -989,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1000,6 +1051,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100981F00714534F248AF97D93A6B3CC418" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1fc465350d09364b3b1afb9d504c5fa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e822ce3d-65dd-42e4-9436-492eba98715f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd6818d699e9f1d0f7334acb213c4b2" ns2:_="">
     <xsd:import namespace="e822ce3d-65dd-42e4-9436-492eba98715f"/>
@@ -1147,12 +1204,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1163,6 +1214,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA06B51-263A-483E-B64B-40457DBAAF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1180,15 +1240,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC8CE91-577E-4356-A8E1-1C9EFD67022A}">
   <ds:schemaRefs>

--- a/実装内容.xlsx
+++ b/実装内容.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083BF325-2B02-4D6A-A1B2-6B15DBCE9617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881E5903-78F2-4295-A8F4-25A0D950A815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -235,41 +235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相手が三角形だった場合相手を回転させる(回転していたら止める)</t>
-    <rPh sb="0" eb="2">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>サンカクケイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイテン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自分を回転させる (回転していたら止める)</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小さくなる</t>
     <rPh sb="0" eb="1">
       <t>チイ</t>
@@ -332,6 +297,47 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分を左回転させる (回転していたら止める)</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手が三角形だった場合相手を右回転させる(回転していたら止める)</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>サンカクケイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -926,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.4">
@@ -979,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.4">
@@ -987,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
@@ -1032,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
@@ -1040,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1051,12 +1057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100981F00714534F248AF97D93A6B3CC418" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="1fc465350d09364b3b1afb9d504c5fa3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e822ce3d-65dd-42e4-9436-492eba98715f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dd6818d699e9f1d0f7334acb213c4b2" ns2:_="">
     <xsd:import namespace="e822ce3d-65dd-42e4-9436-492eba98715f"/>
@@ -1204,6 +1204,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1214,15 +1220,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DA06B51-263A-483E-B64B-40457DBAAF91}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1240,6 +1237,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E62B27F-3B77-4EBC-BD2C-FA60B6F64B02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AC8CE91-577E-4356-A8E1-1C9EFD67022A}">
   <ds:schemaRefs>
